--- a/feats.xlsx
+++ b/feats.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/eb76e5660c890129/Documents/Projects/Design/Patherpoint/patherpoint/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="31" documentId="8_{456611C4-385E-4818-88D8-DF2BB1B9F5F6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{E6882965-ED3F-46C2-BA62-14715AA5567B}"/>
+  <xr:revisionPtr revIDLastSave="34" documentId="8_{456611C4-385E-4818-88D8-DF2BB1B9F5F6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{2937CF42-B19C-4C18-9078-361F3D26741B}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9669" uniqueCount="3866">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9669" uniqueCount="3867">
   <si>
     <t>name</t>
   </si>
@@ -11763,6 +11763,9 @@
   </si>
   <si>
     <t>((characterService.get_Skills(character, '', 'Skill').find(skill =&gt; Skill_Level('Character', skill.name) == 2) &amp;&amp; characterService.get_Skills(character, '', 'Skill').find(skill =&gt; Skill_Level('Character', skill.name) == 4))) || (this.have(character, characterService, charLevel) &amp;&amp; (characterService.get_Skills(character, '', 'Skill').find(skill =&gt; Skill_Level('Character', skill.name) &gt;= 2) &amp;&amp; characterService.get_Skills(character, '', 'Skill').find(skill =&gt; Skill_Level('Character', skill.name) &gt;= 4)))</t>
+  </si>
+  <si>
+    <t>!characterService.get_CompanionAvailable() || this.have(character, characterService, charLevel)</t>
   </si>
 </sst>
 </file>
@@ -21512,10 +21515,10 @@
   <dimension ref="A1:ACN640"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="19" topLeftCell="ACG41" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="19" topLeftCell="UE41" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A19" sqref="A19"/>
-      <selection pane="bottomRight" activeCell="ACL56" sqref="ACL56"/>
+      <selection pane="bottomRight" activeCell="UI56" sqref="UI56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -40486,7 +40489,7 @@
         <v>2820</v>
       </c>
       <c r="UI56" s="7" t="s">
-        <v>3344</v>
+        <v>3866</v>
       </c>
       <c r="VB56" s="7" t="s">
         <v>3040</v>

--- a/feats.xlsx
+++ b/feats.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/eb76e5660c890129/Documents/Projects/Design/Patherpoint/patherpoint/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="34" documentId="8_{456611C4-385E-4818-88D8-DF2BB1B9F5F6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{2937CF42-B19C-4C18-9078-361F3D26741B}"/>
+  <xr:revisionPtr revIDLastSave="53" documentId="8_{456611C4-385E-4818-88D8-DF2BB1B9F5F6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{69223FE7-C84D-415A-8B57-12A891FD79D2}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9669" uniqueCount="3867">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9681" uniqueCount="3871">
   <si>
     <t>name</t>
   </si>
@@ -11766,6 +11766,18 @@
   </si>
   <si>
     <t>!characterService.get_CompanionAvailable() || this.have(character, characterService, charLevel)</t>
+  </si>
+  <si>
+    <t>Inspire Competence</t>
+  </si>
+  <si>
+    <t>You learn the inspire competence composition cantrip, which aids your allies’ skills.</t>
+  </si>
+  <si>
+    <t>e7b357cb-1141-4829-a535-00b851dd0553</t>
+  </si>
+  <si>
+    <t>Feat: Inspire Competence</t>
   </si>
 </sst>
 </file>
@@ -12310,7 +12322,27 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="13">
+  <dxfs count="15">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -21489,22 +21521,22 @@
     <sortCondition ref="C1:AA1"/>
   </sortState>
   <conditionalFormatting sqref="A2:A4 A50 A30 A28 A25 A17 A6">
-    <cfRule type="duplicateValues" dxfId="12" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A66:A67 A63:A64">
-    <cfRule type="duplicateValues" dxfId="11" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A65">
-    <cfRule type="duplicateValues" dxfId="10" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A68">
-    <cfRule type="duplicateValues" dxfId="9" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A69">
-    <cfRule type="duplicateValues" dxfId="8" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:A62">
-    <cfRule type="duplicateValues" dxfId="7" priority="73"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="73"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -21512,13 +21544,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:ACN640"/>
+  <dimension ref="A1:ACO640"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="19" topLeftCell="UE41" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="19" topLeftCell="ACI260" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A19" sqref="A19"/>
-      <selection pane="bottomRight" activeCell="UI56" sqref="UI56"/>
+      <selection pane="bottomRight" activeCell="ACO276" sqref="ACO276"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21526,11 +21558,11 @@
     <col min="1" max="1" width="38.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="551" width="27.42578125" style="1" customWidth="1"/>
     <col min="552" max="554" width="27.28515625" style="1" customWidth="1"/>
-    <col min="555" max="768" width="27.42578125" style="1" customWidth="1"/>
-    <col min="769" max="16384" width="9.140625" style="1"/>
+    <col min="555" max="769" width="27.42578125" style="1" customWidth="1"/>
+    <col min="770" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:768" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:769" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -23835,8 +23867,11 @@
       <c r="ACN1" s="1" t="s">
         <v>3833</v>
       </c>
-    </row>
-    <row r="2" spans="1:768" x14ac:dyDescent="0.25">
+      <c r="ACO1" s="1" t="s">
+        <v>3867</v>
+      </c>
+    </row>
+    <row r="2" spans="1:769" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -26057,8 +26092,11 @@
       <c r="ACN2" s="1" t="s">
         <v>3834</v>
       </c>
-    </row>
-    <row r="3" spans="1:768" x14ac:dyDescent="0.25">
+      <c r="ACO2" s="1" t="s">
+        <v>3868</v>
+      </c>
+    </row>
+    <row r="3" spans="1:769" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>20</v>
       </c>
@@ -26268,7 +26306,7 @@
         <v>3828</v>
       </c>
     </row>
-    <row r="4" spans="1:768" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:769" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>24</v>
       </c>
@@ -27401,7 +27439,7 @@
         <v>3820</v>
       </c>
     </row>
-    <row r="5" spans="1:768" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:769" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>34</v>
       </c>
@@ -28550,7 +28588,7 @@
         <v>2118</v>
       </c>
     </row>
-    <row r="6" spans="1:768" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:769" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>50</v>
       </c>
@@ -28643,7 +28681,7 @@
       <c r="ACF6"/>
       <c r="ACG6"/>
     </row>
-    <row r="7" spans="1:768" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:769" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>91</v>
       </c>
@@ -28730,7 +28768,7 @@
       <c r="ACF7"/>
       <c r="ACG7"/>
     </row>
-    <row r="8" spans="1:768" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:769" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>25</v>
       </c>
@@ -29377,7 +29415,7 @@
       <c r="ACF8"/>
       <c r="ACG8"/>
     </row>
-    <row r="9" spans="1:768" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:769" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>23</v>
       </c>
@@ -29529,7 +29567,7 @@
       <c r="ACF9"/>
       <c r="ACG9"/>
     </row>
-    <row r="10" spans="1:768" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:769" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>26</v>
       </c>
@@ -30149,7 +30187,7 @@
       <c r="ACF10"/>
       <c r="ACG10"/>
     </row>
-    <row r="11" spans="1:768" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:769" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>122</v>
       </c>
@@ -30238,7 +30276,7 @@
       <c r="ACF11"/>
       <c r="ACG11"/>
     </row>
-    <row r="12" spans="1:768" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:769" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>27</v>
       </c>
@@ -30369,7 +30407,7 @@
         <v>1096</v>
       </c>
     </row>
-    <row r="13" spans="1:768" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:769" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>51</v>
       </c>
@@ -30408,7 +30446,7 @@
       <c r="ZG13"/>
       <c r="ZH13"/>
     </row>
-    <row r="14" spans="1:768" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:769" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>1</v>
       </c>
@@ -32629,8 +32667,11 @@
       <c r="ACN14" s="1" t="s">
         <v>3834</v>
       </c>
-    </row>
-    <row r="15" spans="1:768" x14ac:dyDescent="0.25">
+      <c r="ACO14" s="1" t="s">
+        <v>3868</v>
+      </c>
+    </row>
+    <row r="15" spans="1:769" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>105</v>
       </c>
@@ -32781,7 +32822,7 @@
         <v>2594</v>
       </c>
     </row>
-    <row r="16" spans="1:768" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:769" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>121</v>
       </c>
@@ -32789,7 +32830,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:768" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:769" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>28</v>
       </c>
@@ -32938,7 +32979,7 @@
         <v>2248</v>
       </c>
     </row>
-    <row r="18" spans="1:768" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:769" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>3835</v>
       </c>
@@ -32946,7 +32987,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:768" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:769" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>22</v>
       </c>
@@ -33005,7 +33046,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:768" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:769" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>18</v>
       </c>
@@ -34848,8 +34889,11 @@
       <c r="ACN20" s="5" t="s">
         <v>639</v>
       </c>
-    </row>
-    <row r="21" spans="1:768" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="ACO20" s="5" t="s">
+        <v>2256</v>
+      </c>
+    </row>
+    <row r="21" spans="1:769" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>21</v>
       </c>
@@ -35742,7 +35786,7 @@
         <v>1574</v>
       </c>
     </row>
-    <row r="22" spans="1:768" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:769" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>49</v>
       </c>
@@ -36011,7 +36055,7 @@
         <v>1577</v>
       </c>
     </row>
-    <row r="23" spans="1:768" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:769" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>69</v>
       </c>
@@ -36097,7 +36141,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="24" spans="1:768" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:769" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>74</v>
       </c>
@@ -36132,7 +36176,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="25" spans="1:768" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:769" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>106</v>
       </c>
@@ -36143,7 +36187,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="26" spans="1:768" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:769" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>563</v>
       </c>
@@ -36151,7 +36195,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="27" spans="1:768" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:769" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
         <v>13</v>
       </c>
@@ -38018,8 +38062,11 @@
       <c r="ACN27" s="6">
         <v>12</v>
       </c>
-    </row>
-    <row r="28" spans="1:768" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="ACO27" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:769" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>95</v>
       </c>
@@ -38060,7 +38107,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="29" spans="1:768" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:769" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>96</v>
       </c>
@@ -38101,7 +38148,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="30" spans="1:768" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:769" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>2772</v>
       </c>
@@ -38112,7 +38159,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="31" spans="1:768" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:769" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>2773</v>
       </c>
@@ -38123,7 +38170,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="32" spans="1:768" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:769" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>5</v>
       </c>
@@ -38618,6 +38665,9 @@
       </c>
       <c r="ACN32" s="3" t="s">
         <v>3806</v>
+      </c>
+      <c r="ACO32" s="3" t="s">
+        <v>2050</v>
       </c>
     </row>
     <row r="33" spans="1:768" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -50726,12 +50776,12 @@
         <v>2127</v>
       </c>
     </row>
-    <row r="257" spans="1:694" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:769" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A257" s="7" t="s">
         <v>3530</v>
       </c>
     </row>
-    <row r="258" spans="1:694" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:769" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A258" s="7" t="s">
         <v>215</v>
       </c>
@@ -50739,7 +50789,7 @@
         <v>1055</v>
       </c>
     </row>
-    <row r="259" spans="1:694" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:769" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A259" s="2" t="s">
         <v>216</v>
       </c>
@@ -50863,8 +50913,11 @@
       <c r="ZR259" s="2" t="s">
         <v>2140</v>
       </c>
-    </row>
-    <row r="260" spans="1:694" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="ACO259" s="2" t="s">
+        <v>2140</v>
+      </c>
+    </row>
+    <row r="260" spans="1:769" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A260" s="2" t="s">
         <v>52</v>
       </c>
@@ -50878,7 +50931,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="261" spans="1:694" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:769" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A261" s="2" t="s">
         <v>6</v>
       </c>
@@ -51002,8 +51055,11 @@
       <c r="ZR261" s="2" t="s">
         <v>585</v>
       </c>
-    </row>
-    <row r="262" spans="1:694" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="ACO261" s="2" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="262" spans="1:769" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A262" s="2" t="s">
         <v>53</v>
       </c>
@@ -51014,7 +51070,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="263" spans="1:694" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:769" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A263" s="2" t="s">
         <v>7</v>
       </c>
@@ -51138,8 +51194,11 @@
       <c r="ZR263" s="2" t="s">
         <v>1035</v>
       </c>
-    </row>
-    <row r="264" spans="1:694" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="ACO263" s="2" t="s">
+        <v>2256</v>
+      </c>
+    </row>
+    <row r="264" spans="1:769" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A264" s="2" t="s">
         <v>39</v>
       </c>
@@ -51147,7 +51206,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="265" spans="1:694" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:769" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A265" s="2" t="s">
         <v>3360</v>
       </c>
@@ -51155,7 +51214,7 @@
         <v>3237</v>
       </c>
     </row>
-    <row r="266" spans="1:694" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:769" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A266" s="2" t="s">
         <v>3361</v>
       </c>
@@ -51163,7 +51222,7 @@
         <v>3238</v>
       </c>
     </row>
-    <row r="267" spans="1:694" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:769" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A267" s="2" t="s">
         <v>3362</v>
       </c>
@@ -51171,7 +51230,7 @@
         <v>3239</v>
       </c>
     </row>
-    <row r="268" spans="1:694" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:769" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A268" s="2" t="s">
         <v>3363</v>
       </c>
@@ -51179,7 +51238,7 @@
         <v>3240</v>
       </c>
     </row>
-    <row r="269" spans="1:694" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:769" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A269" s="2" t="s">
         <v>3364</v>
       </c>
@@ -51187,7 +51246,7 @@
         <v>2206</v>
       </c>
     </row>
-    <row r="270" spans="1:694" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:769" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A270" s="2" t="s">
         <v>3365</v>
       </c>
@@ -51195,7 +51254,7 @@
         <v>3241</v>
       </c>
     </row>
-    <row r="271" spans="1:694" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:769" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A271" s="2" t="s">
         <v>3366</v>
       </c>
@@ -51203,7 +51262,7 @@
         <v>3242</v>
       </c>
     </row>
-    <row r="272" spans="1:694" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:769" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A272" s="2" t="s">
         <v>3367</v>
       </c>
@@ -51211,7 +51270,7 @@
         <v>2223</v>
       </c>
     </row>
-    <row r="273" spans="1:694" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:769" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A273" s="2" t="s">
         <v>40</v>
       </c>
@@ -51222,7 +51281,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="274" spans="1:694" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:769" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A274" s="2" t="s">
         <v>8</v>
       </c>
@@ -51346,8 +51405,11 @@
       <c r="ZR274" s="2" t="s">
         <v>3593</v>
       </c>
-    </row>
-    <row r="275" spans="1:694" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="ACO274" s="2" t="s">
+        <v>3869</v>
+      </c>
+    </row>
+    <row r="275" spans="1:769" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A275" s="2" t="s">
         <v>217</v>
       </c>
@@ -51355,7 +51417,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="276" spans="1:694" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:769" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A276" s="2" t="s">
         <v>9</v>
       </c>
@@ -51473,8 +51535,11 @@
       <c r="ZR276" s="2">
         <v>-1</v>
       </c>
-    </row>
-    <row r="277" spans="1:694" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="ACO276" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="277" spans="1:769" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A277" s="2" t="s">
         <v>10</v>
       </c>
@@ -51598,8 +51663,11 @@
       <c r="ZR277" s="2" t="s">
         <v>3601</v>
       </c>
-    </row>
-    <row r="278" spans="1:694" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="ACO277" s="2" t="s">
+        <v>3870</v>
+      </c>
+    </row>
+    <row r="278" spans="1:769" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A278" s="2" t="s">
         <v>218</v>
       </c>
@@ -51714,8 +51782,11 @@
       <c r="ZR278" s="2" t="s">
         <v>2141</v>
       </c>
-    </row>
-    <row r="279" spans="1:694" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="ACO278" s="2" t="s">
+        <v>2141</v>
+      </c>
+    </row>
+    <row r="279" spans="1:769" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A279" s="2" t="s">
         <v>11</v>
       </c>
@@ -51830,8 +51901,11 @@
       <c r="ZR279" s="2" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="280" spans="1:694" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="ACO279" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="280" spans="1:769" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A280" s="2" t="s">
         <v>12</v>
       </c>
@@ -51946,8 +52020,11 @@
       <c r="ZR280" s="2" t="s">
         <v>2223</v>
       </c>
-    </row>
-    <row r="281" spans="1:694" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="ACO280" s="2" t="s">
+        <v>3867</v>
+      </c>
+    </row>
+    <row r="281" spans="1:769" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A281" s="2" t="s">
         <v>219</v>
       </c>
@@ -51955,7 +52032,7 @@
         <v>2122</v>
       </c>
     </row>
-    <row r="282" spans="1:694" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:769" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A282" s="2" t="s">
         <v>564</v>
       </c>
@@ -51963,7 +52040,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="283" spans="1:694" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:769" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A283" s="2" t="s">
         <v>565</v>
       </c>
@@ -51971,7 +52048,7 @@
         <v>2291</v>
       </c>
     </row>
-    <row r="284" spans="1:694" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:769" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A284" s="2" t="s">
         <v>566</v>
       </c>
@@ -51979,7 +52056,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="285" spans="1:694" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:769" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A285" s="2" t="s">
         <v>567</v>
       </c>
@@ -51987,7 +52064,7 @@
         <v>2292</v>
       </c>
     </row>
-    <row r="286" spans="1:694" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:769" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A286" s="2" t="s">
         <v>568</v>
       </c>
@@ -51995,7 +52072,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="287" spans="1:694" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:769" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A287" s="2" t="s">
         <v>569</v>
       </c>
@@ -52003,7 +52080,7 @@
         <v>2293</v>
       </c>
     </row>
-    <row r="288" spans="1:694" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:769" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A288" s="2" t="s">
         <v>570</v>
       </c>
@@ -57998,25 +58075,31 @@
   </sortState>
   <phoneticPr fontId="18" type="noConversion"/>
   <conditionalFormatting sqref="B1:YO1 ZY1:AAA1 ABU1 ABA1 AAY1 AAV1 AAN1 AAC1">
-    <cfRule type="duplicateValues" dxfId="6" priority="60"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="62"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="ZK1:ZR1">
-    <cfRule type="duplicateValues" dxfId="5" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:ACG1">
-    <cfRule type="duplicateValues" dxfId="4" priority="66"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="68"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="ACK1:ACL1 ACH1:ACI1">
+    <cfRule type="duplicateValues" dxfId="5" priority="6"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="ACJ1">
+    <cfRule type="duplicateValues" dxfId="4" priority="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="ACM1">
     <cfRule type="duplicateValues" dxfId="3" priority="4"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="ACJ1">
+  <conditionalFormatting sqref="ACN1">
     <cfRule type="duplicateValues" dxfId="2" priority="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="ACM1">
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+  <conditionalFormatting sqref="ACO1">
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="ACN1">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  <conditionalFormatting sqref="ACO1">
+    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/feats.xlsx
+++ b/feats.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/eb76e5660c890129/Personal/Projects/Design/Patherpoint/patherpoint/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="345" documentId="8_{17CD5D8C-B767-4812-956D-A9B96DF27B48}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{E753F328-5EF7-46F7-964D-E8AECBF6D4E7}"/>
+  <xr:revisionPtr revIDLastSave="375" documentId="8_{17CD5D8C-B767-4812-956D-A9B96DF27B48}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{6C14EB5A-6D15-4F8D-961B-E233390022F1}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="3510" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="feats" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11397" uniqueCount="4843">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11407" uniqueCount="4849">
   <si>
     <t>name</t>
   </si>
@@ -14708,6 +14708,24 @@
   </si>
   <si>
     <t>You stick to walls with a preternatural grip. You gain a climb Speed of 15 feet.</t>
+  </si>
+  <si>
+    <t>Badlands Orc</t>
+  </si>
+  <si>
+    <t>Badlands Orc Hustle</t>
+  </si>
+  <si>
+    <t>You can Hustle twice as long while exploring before you have to stop.</t>
+  </si>
+  <si>
+    <t>You come from sun-scorched badlands, where long legs and an ability to withstand the elements helped you thrive. You can Hustle twice as long while exploring before you have to stop.</t>
+  </si>
+  <si>
+    <t>You come from sun-scorched badlands, where long legs and an ability to withstand the elements helped you thrive.</t>
+  </si>
+  <si>
+    <t>You come from sun-scorched badlands, where long legs and an ability to withstand the elements helped you thrive. You treat environmental heat effects as if they were one step less extreme (incredible heat becomes extreme, extreme heat becomes severe, and so on).</t>
   </si>
 </sst>
 </file>
@@ -15197,7 +15215,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="19" applyAlignment="1"/>
@@ -15208,9 +15226,6 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" xfId="39" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="26" borderId="0" xfId="35" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="19" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -15749,14 +15764,14 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AKC949"/>
+  <dimension ref="A1:AKE949"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="19" topLeftCell="AJC53" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="19" topLeftCell="AJW20" activePane="bottomRight" state="frozen"/>
       <selection activeCell="PE338" sqref="PE338"/>
       <selection pane="topRight" activeCell="PE338" sqref="PE338"/>
       <selection pane="bottomLeft" activeCell="PE338" sqref="PE338"/>
-      <selection pane="bottomRight" activeCell="AJG56" sqref="AJG56"/>
+      <selection pane="bottomRight" activeCell="AKD1" sqref="AKD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15764,11 +15779,11 @@
     <col min="1" max="1" width="38.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="539" width="27.42578125" style="1" customWidth="1"/>
     <col min="540" max="542" width="27.28515625" style="1" customWidth="1"/>
-    <col min="543" max="965" width="27.42578125" style="1" customWidth="1"/>
-    <col min="966" max="16384" width="9.140625" style="1"/>
+    <col min="543" max="967" width="27.42578125" style="1" customWidth="1"/>
+    <col min="968" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:965" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:967" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -18664,8 +18679,14 @@
       <c r="AKC1" s="1" t="s">
         <v>4740</v>
       </c>
-    </row>
-    <row r="2" spans="1:965" x14ac:dyDescent="0.25">
+      <c r="AKD1" s="1" t="s">
+        <v>4843</v>
+      </c>
+      <c r="AKE1" s="1" t="s">
+        <v>4844</v>
+      </c>
+    </row>
+    <row r="2" spans="1:967" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -18858,7 +18879,7 @@
       <c r="BL2" s="1" t="s">
         <v>816</v>
       </c>
-      <c r="BM2" s="10" t="s">
+      <c r="BM2" s="1" t="s">
         <v>821</v>
       </c>
       <c r="BN2" s="1" t="s">
@@ -18897,7 +18918,7 @@
       <c r="BY2" s="1" t="s">
         <v>871</v>
       </c>
-      <c r="BZ2" s="10" t="s">
+      <c r="BZ2" s="1" t="s">
         <v>875</v>
       </c>
       <c r="CA2" s="1" t="s">
@@ -19032,7 +19053,7 @@
       <c r="DR2" s="1" t="s">
         <v>1066</v>
       </c>
-      <c r="DS2" s="10" t="s">
+      <c r="DS2" s="1" t="s">
         <v>1070</v>
       </c>
       <c r="DT2" s="1" t="s">
@@ -19041,7 +19062,7 @@
       <c r="DU2" s="1" t="s">
         <v>1075</v>
       </c>
-      <c r="DV2" s="10" t="s">
+      <c r="DV2" s="1" t="s">
         <v>4817</v>
       </c>
       <c r="DW2" s="1" t="s">
@@ -19218,7 +19239,7 @@
       <c r="GB2" s="1" t="s">
         <v>1337</v>
       </c>
-      <c r="GC2" s="10" t="s">
+      <c r="GC2" s="1" t="s">
         <v>2304</v>
       </c>
       <c r="GD2" s="1" t="s">
@@ -19311,7 +19332,7 @@
       <c r="HG2" s="1" t="s">
         <v>1453</v>
       </c>
-      <c r="HH2" s="10" t="s">
+      <c r="HH2" s="1" t="s">
         <v>4818</v>
       </c>
       <c r="HI2" s="1" t="s">
@@ -19335,7 +19356,7 @@
       <c r="HO2" s="1" t="s">
         <v>1482</v>
       </c>
-      <c r="HP2" s="10" t="s">
+      <c r="HP2" s="1" t="s">
         <v>4819</v>
       </c>
       <c r="HQ2" s="1" t="s">
@@ -19368,7 +19389,7 @@
       <c r="HZ2" s="1" t="s">
         <v>1517</v>
       </c>
-      <c r="IA2" s="10" t="s">
+      <c r="IA2" s="1" t="s">
         <v>1520</v>
       </c>
       <c r="IB2" s="1" t="s">
@@ -19401,7 +19422,7 @@
       <c r="IK2" s="1" t="s">
         <v>1553</v>
       </c>
-      <c r="IL2" s="10" t="s">
+      <c r="IL2" s="1" t="s">
         <v>2729</v>
       </c>
       <c r="IM2" s="1" t="s">
@@ -19620,7 +19641,7 @@
       <c r="LF2" s="1" t="s">
         <v>1844</v>
       </c>
-      <c r="LG2" s="10" t="s">
+      <c r="LG2" s="1" t="s">
         <v>4823</v>
       </c>
       <c r="LH2" s="1" t="s">
@@ -19863,7 +19884,7 @@
       <c r="OZ2" s="1" t="s">
         <v>2699</v>
       </c>
-      <c r="PF2" s="10" t="s">
+      <c r="PF2" s="1" t="s">
         <v>2286</v>
       </c>
       <c r="PG2" s="1" t="s">
@@ -19884,7 +19905,7 @@
       <c r="PP2" s="1" t="s">
         <v>2237</v>
       </c>
-      <c r="PQ2" s="10" t="s">
+      <c r="PQ2" s="1" t="s">
         <v>2296</v>
       </c>
       <c r="PR2" s="1" t="s">
@@ -20079,7 +20100,7 @@
       <c r="SC2" s="1" t="s">
         <v>3076</v>
       </c>
-      <c r="SD2" s="10" t="s">
+      <c r="SD2" s="1" t="s">
         <v>3077</v>
       </c>
       <c r="SE2" s="1" t="s">
@@ -20214,7 +20235,7 @@
       <c r="TV2" s="1" t="s">
         <v>2795</v>
       </c>
-      <c r="TW2" s="10" t="s">
+      <c r="TW2" s="1" t="s">
         <v>653</v>
       </c>
       <c r="TX2" s="1" t="s">
@@ -20229,7 +20250,7 @@
       <c r="UA2" s="1" t="s">
         <v>2802</v>
       </c>
-      <c r="UB2" s="10" t="s">
+      <c r="UB2" s="1" t="s">
         <v>3092</v>
       </c>
       <c r="UC2" s="1" t="s">
@@ -20280,25 +20301,25 @@
       <c r="UR2" s="1" t="s">
         <v>3096</v>
       </c>
-      <c r="US2" s="10" t="s">
+      <c r="US2" s="1" t="s">
         <v>3097</v>
       </c>
-      <c r="UT2" s="10" t="s">
+      <c r="UT2" s="1" t="s">
         <v>3098</v>
       </c>
-      <c r="UU2" s="10" t="s">
+      <c r="UU2" s="1" t="s">
         <v>3099</v>
       </c>
-      <c r="UV2" s="10" t="s">
+      <c r="UV2" s="1" t="s">
         <v>3100</v>
       </c>
-      <c r="UW2" s="10" t="s">
+      <c r="UW2" s="1" t="s">
         <v>3101</v>
       </c>
       <c r="UX2" s="1" t="s">
         <v>2824</v>
       </c>
-      <c r="UY2" s="10" t="s">
+      <c r="UY2" s="1" t="s">
         <v>3102</v>
       </c>
       <c r="UZ2" s="1" t="s">
@@ -20310,7 +20331,7 @@
       <c r="VB2" s="1" t="s">
         <v>3104</v>
       </c>
-      <c r="VC2" s="10" t="s">
+      <c r="VC2" s="1" t="s">
         <v>3105</v>
       </c>
       <c r="VD2" s="1" t="s">
@@ -20598,7 +20619,7 @@
       <c r="YT2" s="1" t="s">
         <v>3497</v>
       </c>
-      <c r="YU2" s="10" t="s">
+      <c r="YU2" s="1" t="s">
         <v>3582</v>
       </c>
       <c r="YV2" s="1" t="s">
@@ -20652,19 +20673,19 @@
       <c r="ZL2" s="1" t="s">
         <v>3538</v>
       </c>
-      <c r="ZM2" s="10" t="s">
+      <c r="ZM2" s="1" t="s">
         <v>3894</v>
       </c>
-      <c r="ZN2" s="10" t="s">
+      <c r="ZN2" s="1" t="s">
         <v>3895</v>
       </c>
-      <c r="ZO2" s="10" t="s">
+      <c r="ZO2" s="1" t="s">
         <v>2285</v>
       </c>
       <c r="ZP2" s="1" t="s">
         <v>3588</v>
       </c>
-      <c r="ZQ2" s="10" t="s">
+      <c r="ZQ2" s="1" t="s">
         <v>2290</v>
       </c>
       <c r="ZR2" s="1" t="s">
@@ -20736,7 +20757,7 @@
       <c r="AAN2" s="1" t="s">
         <v>3611</v>
       </c>
-      <c r="AAO2" s="10" t="s">
+      <c r="AAO2" s="1" t="s">
         <v>2439</v>
       </c>
       <c r="AAP2" s="1" t="s">
@@ -20763,7 +20784,7 @@
       <c r="AAW2" s="1" t="s">
         <v>3695</v>
       </c>
-      <c r="AAX2" s="10" t="s">
+      <c r="AAX2" s="1" t="s">
         <v>3912</v>
       </c>
       <c r="AAY2" s="1" t="s">
@@ -20877,7 +20898,7 @@
       <c r="ACI2" s="1" t="s">
         <v>3859</v>
       </c>
-      <c r="ACJ2" s="10" t="s">
+      <c r="ACJ2" s="1" t="s">
         <v>3921</v>
       </c>
       <c r="ACK2" s="1" t="s">
@@ -20958,7 +20979,7 @@
       <c r="ADJ2" s="1" t="s">
         <v>3999</v>
       </c>
-      <c r="ADK2" s="10" t="s">
+      <c r="ADK2" s="1" t="s">
         <v>4797</v>
       </c>
       <c r="ADL2" s="1" t="s">
@@ -20976,7 +20997,7 @@
       <c r="ADP2" s="1" t="s">
         <v>4798</v>
       </c>
-      <c r="ADQ2" s="10" t="s">
+      <c r="ADQ2" s="1" t="s">
         <v>4799</v>
       </c>
       <c r="ADR2" s="1" t="s">
@@ -21018,7 +21039,7 @@
       <c r="AFR2" s="1" t="s">
         <v>4837</v>
       </c>
-      <c r="AGB2" s="10" t="s">
+      <c r="AGB2" s="1" t="s">
         <v>4801</v>
       </c>
       <c r="AGC2" s="1" t="s">
@@ -21114,8 +21135,14 @@
       <c r="AKC2" s="1" t="s">
         <v>4742</v>
       </c>
-    </row>
-    <row r="3" spans="1:965" x14ac:dyDescent="0.25">
+      <c r="AKD2" s="1" t="s">
+        <v>4848</v>
+      </c>
+      <c r="AKE2" s="1" t="s">
+        <v>4846</v>
+      </c>
+    </row>
+    <row r="3" spans="1:967" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>19</v>
       </c>
@@ -21270,7 +21297,7 @@
         <v>4810</v>
       </c>
     </row>
-    <row r="4" spans="1:965" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:967" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>23</v>
       </c>
@@ -21412,7 +21439,7 @@
       <c r="BL4" s="1" t="s">
         <v>817</v>
       </c>
-      <c r="BM4" s="10" t="s">
+      <c r="BM4" s="1" t="s">
         <v>823</v>
       </c>
       <c r="BO4" s="1" t="s">
@@ -21445,7 +21472,7 @@
       <c r="BY4" s="1" t="s">
         <v>872</v>
       </c>
-      <c r="BZ4" s="10" t="s">
+      <c r="BZ4" s="1" t="s">
         <v>876</v>
       </c>
       <c r="CA4" s="1" t="s">
@@ -21487,7 +21514,7 @@
       <c r="CP4" s="1" t="s">
         <v>937</v>
       </c>
-      <c r="CQ4" s="10" t="s">
+      <c r="CQ4" s="1" t="s">
         <v>942</v>
       </c>
       <c r="CS4" s="1" t="s">
@@ -21745,7 +21772,7 @@
       <c r="HG4" s="1" t="s">
         <v>1457</v>
       </c>
-      <c r="HH4" s="10" t="s">
+      <c r="HH4" s="1" t="s">
         <v>4818</v>
       </c>
       <c r="HK4" s="1" t="s">
@@ -21958,7 +21985,7 @@
       <c r="LF4" s="1" t="s">
         <v>1846</v>
       </c>
-      <c r="LG4" s="10" t="s">
+      <c r="LG4" s="1" t="s">
         <v>4821</v>
       </c>
       <c r="LI4" s="1" t="s">
@@ -22069,7 +22096,7 @@
       <c r="RZ4" s="1" t="s">
         <v>2535</v>
       </c>
-      <c r="SD4" s="10" t="s">
+      <c r="SD4" s="1" t="s">
         <v>3126</v>
       </c>
       <c r="SE4" s="1" t="s">
@@ -22150,16 +22177,16 @@
       <c r="UR4" s="1" t="s">
         <v>3134</v>
       </c>
-      <c r="UT4" s="10" t="s">
+      <c r="UT4" s="1" t="s">
         <v>3135</v>
       </c>
-      <c r="UU4" s="10" t="s">
+      <c r="UU4" s="1" t="s">
         <v>3136</v>
       </c>
-      <c r="UV4" s="10" t="s">
+      <c r="UV4" s="1" t="s">
         <v>3137</v>
       </c>
-      <c r="UW4" s="10" t="s">
+      <c r="UW4" s="1" t="s">
         <v>3138</v>
       </c>
       <c r="UY4" s="1" t="s">
@@ -22174,7 +22201,7 @@
       <c r="VB4" s="1" t="s">
         <v>3141</v>
       </c>
-      <c r="VC4" s="10" t="s">
+      <c r="VC4" s="1" t="s">
         <v>3142</v>
       </c>
       <c r="VE4" s="1" t="s">
@@ -22303,7 +22330,7 @@
       <c r="YT4" s="1" t="s">
         <v>3366</v>
       </c>
-      <c r="YU4" s="10" t="s">
+      <c r="YU4" s="1" t="s">
         <v>3583</v>
       </c>
       <c r="YV4" s="1" t="s">
@@ -22318,7 +22345,7 @@
       <c r="ZO4" s="1" t="s">
         <v>2081</v>
       </c>
-      <c r="ZQ4" s="10" t="s">
+      <c r="ZQ4" s="1" t="s">
         <v>2291</v>
       </c>
       <c r="ZT4" s="1" t="s">
@@ -22345,7 +22372,7 @@
       <c r="AAL4" s="1" t="s">
         <v>3689</v>
       </c>
-      <c r="AAO4" s="10" t="s">
+      <c r="AAO4" s="1" t="s">
         <v>2302</v>
       </c>
       <c r="AAQ4" s="1" t="s">
@@ -22363,7 +22390,7 @@
       <c r="AAW4" s="1" t="s">
         <v>3696</v>
       </c>
-      <c r="AAX4" s="10" t="s">
+      <c r="AAX4" s="1" t="s">
         <v>3933</v>
       </c>
       <c r="AAY4" s="1" t="s">
@@ -22417,7 +22444,7 @@
       <c r="ADJ4" s="1" t="s">
         <v>4000</v>
       </c>
-      <c r="ADK4" s="10" t="s">
+      <c r="ADK4" s="1" t="s">
         <v>4812</v>
       </c>
       <c r="ADP4" s="1" t="s">
@@ -22471,8 +22498,14 @@
       <c r="AKC4" s="1" t="s">
         <v>4743</v>
       </c>
-    </row>
-    <row r="5" spans="1:965" x14ac:dyDescent="0.25">
+      <c r="AKD4" s="1" t="s">
+        <v>1073</v>
+      </c>
+      <c r="AKE4" s="1" t="s">
+        <v>4845</v>
+      </c>
+    </row>
+    <row r="5" spans="1:967" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>33</v>
       </c>
@@ -23646,8 +23679,14 @@
       <c r="AKC5" s="1" t="s">
         <v>936</v>
       </c>
-    </row>
-    <row r="6" spans="1:965" x14ac:dyDescent="0.25">
+      <c r="AKD5" s="1" t="s">
+        <v>673</v>
+      </c>
+      <c r="AKE5" s="1" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="6" spans="1:967" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>49</v>
       </c>
@@ -23661,7 +23700,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:965" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:967" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>90</v>
       </c>
@@ -23714,7 +23753,7 @@
         <v>4304</v>
       </c>
     </row>
-    <row r="8" spans="1:965" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:967" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>24</v>
       </c>
@@ -24340,7 +24379,7 @@
         <v>2156</v>
       </c>
     </row>
-    <row r="9" spans="1:965" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:967" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>22</v>
       </c>
@@ -24426,7 +24465,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:965" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:967" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>25</v>
       </c>
@@ -25025,7 +25064,7 @@
         <v>4364</v>
       </c>
     </row>
-    <row r="11" spans="1:965" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:967" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>121</v>
       </c>
@@ -25048,7 +25087,7 @@
         <v>3977</v>
       </c>
     </row>
-    <row r="12" spans="1:965" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:967" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>26</v>
       </c>
@@ -25191,7 +25230,7 @@
         <v>4815</v>
       </c>
     </row>
-    <row r="13" spans="1:965" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:967" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>50</v>
       </c>
@@ -25202,7 +25241,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:965" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:967" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>1</v>
       </c>
@@ -28020,8 +28059,14 @@
       <c r="AKC14" s="1" t="s">
         <v>4741</v>
       </c>
-    </row>
-    <row r="15" spans="1:965" x14ac:dyDescent="0.25">
+      <c r="AKD14" s="1" t="s">
+        <v>4847</v>
+      </c>
+      <c r="AKE14" s="1" t="s">
+        <v>4847</v>
+      </c>
+    </row>
+    <row r="15" spans="1:967" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>104</v>
       </c>
@@ -28224,7 +28269,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="16" spans="1:965" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:967" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>120</v>
       </c>

--- a/feats.xlsx
+++ b/feats.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/eb76e5660c890129/Personal/Projects/Design/Patherpoint/patherpoint/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="381" documentId="8_{17CD5D8C-B767-4812-956D-A9B96DF27B48}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{A8F39E57-15B8-485C-B081-F80414D2C6D3}"/>
+  <xr:revisionPtr revIDLastSave="382" documentId="8_{17CD5D8C-B767-4812-956D-A9B96DF27B48}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{7A77AF61-3E6F-42BF-982C-E67563DAB8D4}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11401" uniqueCount="4843">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11402" uniqueCount="4843">
   <si>
     <t>name</t>
   </si>
@@ -15749,11 +15749,11 @@
   <dimension ref="A1:AKE949"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="19" topLeftCell="XY284" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="19" topLeftCell="DY56" activePane="bottomRight" state="frozen"/>
       <selection activeCell="PE338" sqref="PE338"/>
       <selection pane="topRight" activeCell="PE338" sqref="PE338"/>
       <selection pane="bottomLeft" activeCell="PE338" sqref="PE338"/>
-      <selection pane="bottomRight" activeCell="YC295" sqref="YC295"/>
+      <selection pane="bottomRight" activeCell="EF67" sqref="EF67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -38338,8 +38338,8 @@
       <c r="EE67" s="2">
         <v>2</v>
       </c>
-      <c r="EF67" s="2" t="e">
-        <v>#NAME?</v>
+      <c r="EF67" s="2" t="s">
+        <v>1760</v>
       </c>
       <c r="EM67" s="2">
         <v>2</v>

--- a/feats.xlsx
+++ b/feats.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/eb76e5660c890129/Personal/Projects/Design/Patherpoint/patherpoint/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="38" documentId="114_{FA74D905-5457-484E-846B-22923D609547}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{8D5A521F-DFB6-4A14-AD16-1294F4F972A1}"/>
+  <xr:revisionPtr revIDLastSave="42" documentId="114_{FA74D905-5457-484E-846B-22923D609547}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{89AA7DCD-3920-480A-86C3-38C552E22794}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12490" uniqueCount="5206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12490" uniqueCount="5208">
   <si>
     <t>name</t>
   </si>
@@ -16031,6 +16031,12 @@
   </si>
   <si>
     <t>You can use Retributive Strike with a ranged weapon.</t>
+  </si>
+  <si>
+    <t>You can help your whole group get into position. When you use Liberating Step, if your ally doesn't attempt to break free of an effect, you and all allies within 15 feet can Step, in addition to the triggering ally.</t>
+  </si>
+  <si>
+    <t>When you use Liberating Step, if your ally doesn't attempt to break free of an effect, you and all allies within 15 feet can Step, in addition to the triggering ally.</t>
   </si>
 </sst>
 </file>
@@ -20056,20 +20062,17 @@
   <dimension ref="A1:ANU986"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="19" topLeftCell="ANN20" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="19" topLeftCell="PU20" activePane="bottomRight" state="frozen"/>
       <selection activeCell="PE338" sqref="PE338"/>
       <selection pane="topRight" activeCell="PE338" sqref="PE338"/>
       <selection pane="bottomLeft" activeCell="PE338" sqref="PE338"/>
-      <selection pane="bottomRight" activeCell="ANU2" sqref="ANU2"/>
+      <selection pane="bottomRight" activeCell="PY4" sqref="PY4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="38.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="625" width="27.42578125" style="1" customWidth="1"/>
-    <col min="626" max="628" width="27.28515625" style="1" customWidth="1"/>
-    <col min="629" max="1060" width="27.42578125" style="1" customWidth="1"/>
-    <col min="1061" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1061" width="27.42578125" style="1" customWidth="1"/>
+    <col min="1062" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1061" customFormat="1" x14ac:dyDescent="0.25">
@@ -24570,7 +24573,7 @@
         <v>5100</v>
       </c>
       <c r="PY2" s="1" t="s">
-        <v>5103</v>
+        <v>5206</v>
       </c>
       <c r="PZ2" s="1" t="s">
         <v>5197</v>
@@ -27025,7 +27028,7 @@
         <v>5101</v>
       </c>
       <c r="PY4" s="1" t="s">
-        <v>5104</v>
+        <v>5207</v>
       </c>
       <c r="QA4" s="1" t="s">
         <v>5115</v>

--- a/feats.xlsx
+++ b/feats.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/eb76e5660c890129/Personal/Projects/Design/Patherpoint/patherpoint/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1397" documentId="6_{DC6D762A-4C8E-421B-B277-4FA25E6B0353}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{DFEC715F-45D5-4C9E-AB5D-AB9013A3D9BE}"/>
+  <xr:revisionPtr revIDLastSave="1423" documentId="6_{DC6D762A-4C8E-421B-B277-4FA25E6B0353}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{C30A591D-D243-46F0-AC77-5CA1C17FF398}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="feats" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13562" uniqueCount="5486">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13571" uniqueCount="5492">
   <si>
     <t>name</t>
   </si>
@@ -16841,9 +16841,6 @@
     <t>You can use Halfling Luck once per hour, rather than once per day. If you have Guiding Luck, you can still use Halfling Luck when you fail a Perception check or attack roll only once per day (though you can use it within the same hour that you used Halfling Luck), and if you have Shared Luck, you can still use Halfling Luck on an ally instead of yourself only once per day.</t>
   </si>
   <si>
-    <t>character.get_FeatsTaken(0,charLevel).filter(gain =&gt; characterService.get_FeatsAndFeatures(gain.name).some(feat =&gt; feat.traits.includes(\"Stance\"))).length &gt;= 2</t>
-  </si>
-  <si>
     <t>Companion:Stealth Proficiency Level</t>
   </si>
   <si>
@@ -16881,6 +16878,27 @@
   </si>
   <si>
     <t>Storm order</t>
+  </si>
+  <si>
+    <t>character.get_FeatsTaken(0,charLevel).filter(gain =&gt; characterService.get_FeatsAndFeatures(gain.name).some(feat =&gt; feat.traits.includes(\"Stance\"))).length &gt;= 2</t>
+  </si>
+  <si>
+    <t>You carry the fury of the storm within you, channeling it to terrifying effect and riding the winds through the sky. You are trained in Acrobatics. You also gain the Storm Born druid feat. You gain the tempest surge order spell, and you increase the number of Focus Points in your focus pool by 1. Polluting the air or allowing those who cause major air pollution or climate shifts to go unpunished is anathema to your order. (This doesn't force you to take action against merely potential harm to the environment or to sacrifice yourself against an obviously superior foe.)</t>
+  </si>
+  <si>
+    <t>Polluting the air or allowing those who cause major air pollution or climate shifts to go unpunished is anathema to your order. (This doesn't force you to take action against merely potential harm to the environment or to sacrifice yourself against an obviously superior foe.)</t>
+  </si>
+  <si>
+    <t>Character.class.name == 'Druid' ? 1 : 0</t>
+  </si>
+  <si>
+    <t>Feat: Otherworldly Magic</t>
+  </si>
+  <si>
+    <t>Your elven magic manifests as a simple arcane spell, even if you aren't formally trained in magic. Choose one cantrip from the arcane spell list. You can cast this cantrip as an arcane innate spell at will. A cantrip is heightened to a spell level equal to half your level rounded up.</t>
+  </si>
+  <si>
+    <t>cfe25e1d-3c21-4812-b815-5099c0bf4ce0</t>
   </si>
 </sst>
 </file>
@@ -18204,7 +18222,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:NP3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -19358,7 +19376,7 @@
         <v>1867</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>5475</v>
+        <v>5474</v>
       </c>
       <c r="D2" s="12"/>
       <c r="E2" s="5"/>
@@ -19396,7 +19414,7 @@
       <c r="AK2" s="5"/>
       <c r="AL2" s="5"/>
       <c r="AU2" s="1" t="s">
-        <v>5481</v>
+        <v>5480</v>
       </c>
       <c r="BA2" s="5"/>
       <c r="BB2" s="5"/>
@@ -19471,7 +19489,7 @@
       <c r="DK2" s="4"/>
       <c r="DL2" s="4"/>
       <c r="DM2" s="6" t="s">
-        <v>5477</v>
+        <v>5476</v>
       </c>
       <c r="DN2" s="6"/>
       <c r="DO2" s="6"/>
@@ -19554,7 +19572,7 @@
         <v>1</v>
       </c>
       <c r="GL2" s="4" t="s">
-        <v>5476</v>
+        <v>5475</v>
       </c>
       <c r="GM2" s="4"/>
       <c r="GN2" s="4"/>
@@ -19762,7 +19780,7 @@
       <c r="NF2" s="2"/>
       <c r="NG2" s="2"/>
       <c r="NH2" s="2" t="s">
-        <v>5478</v>
+        <v>5477</v>
       </c>
       <c r="NI2" s="2" t="s">
         <v>2059</v>
@@ -19782,21 +19800,21 @@
         <v>1</v>
       </c>
       <c r="NP2" s="2" t="s">
-        <v>5479</v>
+        <v>5478</v>
       </c>
     </row>
     <row r="3" spans="1:380" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>5476</v>
+        <v>5475</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>5482</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>5481</v>
+      </c>
+      <c r="E3" s="5" t="s">
         <v>5483</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>5482</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>5484</v>
       </c>
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
@@ -19832,7 +19850,7 @@
       <c r="AK3" s="5"/>
       <c r="AL3" s="5"/>
       <c r="AU3" s="1" t="s">
-        <v>5480</v>
+        <v>5479</v>
       </c>
       <c r="BA3" s="5" t="s">
         <v>2059</v>
@@ -19851,7 +19869,7 @@
       <c r="BK3" s="2"/>
       <c r="BL3" s="2"/>
       <c r="BM3" s="3" t="s">
-        <v>5485</v>
+        <v>5484</v>
       </c>
       <c r="BN3" s="3"/>
       <c r="BO3" s="3"/>
@@ -20171,7 +20189,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A3">
-    <cfRule type="duplicateValues" dxfId="0" priority="127"/>
+    <cfRule type="duplicateValues" dxfId="45" priority="127"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -20181,11 +20199,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AOR999"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="QI365" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="ABG2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" sqref="A1:QJ380"/>
+      <selection pane="bottomRight" activeCell="ABK2" sqref="ABK2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21550,7 +21568,7 @@
         <v>1867</v>
       </c>
       <c r="QJ1" t="s">
-        <v>5476</v>
+        <v>5475</v>
       </c>
       <c r="QK1" t="s">
         <v>1868</v>
@@ -24780,10 +24798,10 @@
         <v>4916</v>
       </c>
       <c r="QI2" s="1" t="s">
-        <v>5475</v>
+        <v>5486</v>
       </c>
       <c r="QJ2" s="1" t="s">
-        <v>5483</v>
+        <v>5482</v>
       </c>
       <c r="QL2" s="1" t="s">
         <v>1871</v>
@@ -26482,6 +26500,9 @@
       </c>
       <c r="AMR2" s="1" t="s">
         <v>1263</v>
+      </c>
+      <c r="AMS2" s="1" t="s">
+        <v>5490</v>
       </c>
       <c r="ANM2" s="1" t="s">
         <v>2066</v>
@@ -27349,7 +27370,7 @@
         <v>4863</v>
       </c>
       <c r="QJ4" s="12" t="s">
-        <v>5482</v>
+        <v>5481</v>
       </c>
       <c r="RZ4" s="12" t="s">
         <v>5104</v>
@@ -27851,6 +27872,9 @@
       </c>
       <c r="AJJ4" s="12" t="s">
         <v>5471</v>
+      </c>
+      <c r="AJK4" s="12" t="s">
+        <v>4499</v>
       </c>
       <c r="AJT4" s="12" t="s">
         <v>4448</v>
@@ -28764,7 +28788,7 @@
         <v>4923</v>
       </c>
       <c r="QJ5" s="5" t="s">
-        <v>5484</v>
+        <v>5483</v>
       </c>
       <c r="RZ5" s="5" t="s">
         <v>5429</v>
@@ -34245,10 +34269,10 @@
         <v>4929</v>
       </c>
       <c r="QI47" s="1" t="s">
-        <v>5481</v>
+        <v>5480</v>
       </c>
       <c r="QJ47" s="1" t="s">
-        <v>5480</v>
+        <v>5479</v>
       </c>
       <c r="QL47" s="1" t="s">
         <v>1870</v>
@@ -43746,7 +43770,7 @@
         <v>1862</v>
       </c>
       <c r="QJ65" s="3" t="s">
-        <v>5485</v>
+        <v>5484</v>
       </c>
       <c r="SL65" s="3" t="s">
         <v>2104</v>
@@ -46190,7 +46214,7 @@
         <v>2275</v>
       </c>
       <c r="DX90" s="7" t="s">
-        <v>5472</v>
+        <v>5485</v>
       </c>
       <c r="DZ90" s="7" t="s">
         <v>2270</v>
@@ -46955,7 +46979,7 @@
         <v>1545</v>
       </c>
       <c r="KG93" s="2" t="s">
-        <v>1421</v>
+        <v>1246</v>
       </c>
       <c r="KH93" s="2" t="s">
         <v>1663</v>
@@ -47009,7 +47033,7 @@
         <v>976</v>
       </c>
       <c r="YP93" s="2" t="s">
-        <v>5473</v>
+        <v>5472</v>
       </c>
       <c r="ZE93" s="2" t="s">
         <v>767</v>
@@ -47350,7 +47374,7 @@
         <v>5119</v>
       </c>
       <c r="QI97" s="2" t="s">
-        <v>5119</v>
+        <v>5488</v>
       </c>
       <c r="SK97" s="2">
         <v>1</v>
@@ -47365,7 +47389,7 @@
         <v>5176</v>
       </c>
       <c r="YP97" s="2" t="s">
-        <v>5474</v>
+        <v>5473</v>
       </c>
       <c r="ZE97" s="2">
         <v>2</v>
@@ -47732,7 +47756,7 @@
         <v>5119</v>
       </c>
       <c r="QI102" s="3" t="s">
-        <v>5119</v>
+        <v>5488</v>
       </c>
       <c r="SK102" s="3">
         <v>1</v>
@@ -48017,7 +48041,7 @@
         <v>4781</v>
       </c>
       <c r="QI117" s="6" t="s">
-        <v>5477</v>
+        <v>5487</v>
       </c>
     </row>
     <row r="118" spans="1:1005 1071:1071" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -50377,7 +50401,7 @@
         <v>4835</v>
       </c>
       <c r="QI194" s="4" t="s">
-        <v>5476</v>
+        <v>5475</v>
       </c>
       <c r="WG194" s="4" t="s">
         <v>2580</v>
@@ -60864,7 +60888,7 @@
         <v>2051</v>
       </c>
     </row>
-    <row r="353" spans="1:1027" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:1033" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A353" s="7" t="s">
         <v>204</v>
       </c>
@@ -60875,12 +60899,12 @@
         <v>2071</v>
       </c>
     </row>
-    <row r="354" spans="1:1027" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:1033" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A354" s="7" t="s">
         <v>3268</v>
       </c>
     </row>
-    <row r="355" spans="1:1027" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:1033" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A355" s="7" t="s">
         <v>205</v>
       </c>
@@ -60891,7 +60915,7 @@
         <v>3455</v>
       </c>
     </row>
-    <row r="356" spans="1:1027" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:1033" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A356" s="2" t="s">
         <v>206</v>
       </c>
@@ -61209,8 +61233,11 @@
       <c r="AMM356" s="2" t="s">
         <v>1939</v>
       </c>
-    </row>
-    <row r="357" spans="1:1027" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AMS356" s="2" t="s">
+        <v>1939</v>
+      </c>
+    </row>
+    <row r="357" spans="1:1033" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A357" s="2" t="s">
         <v>49</v>
       </c>
@@ -61277,8 +61304,11 @@
       <c r="AMA357" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="358" spans="1:1027" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AMS357" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="358" spans="1:1033" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A358" s="2" t="s">
         <v>6</v>
       </c>
@@ -61584,8 +61614,11 @@
       <c r="AMM358" s="2" t="s">
         <v>613</v>
       </c>
-    </row>
-    <row r="359" spans="1:1027" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AMS358" s="2" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="359" spans="1:1033" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A359" s="2" t="s">
         <v>50</v>
       </c>
@@ -61605,7 +61638,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="360" spans="1:1027" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:1033" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A360" s="2" t="s">
         <v>7</v>
       </c>
@@ -61911,8 +61944,11 @@
       <c r="AMM360" s="2" t="s">
         <v>613</v>
       </c>
-    </row>
-    <row r="361" spans="1:1027" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AMS360" s="2" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="361" spans="1:1033" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A361" s="2" t="s">
         <v>4602</v>
       </c>
@@ -61989,7 +62025,7 @@
         <v>144000</v>
       </c>
     </row>
-    <row r="362" spans="1:1027" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:1033" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A362" s="2" t="s">
         <v>36</v>
       </c>
@@ -62000,7 +62036,7 @@
         <v>5337</v>
       </c>
     </row>
-    <row r="363" spans="1:1027" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:1033" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A363" s="2" t="s">
         <v>3102</v>
       </c>
@@ -62008,7 +62044,7 @@
         <v>2981</v>
       </c>
     </row>
-    <row r="364" spans="1:1027" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:1033" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A364" s="2" t="s">
         <v>3103</v>
       </c>
@@ -62016,7 +62052,7 @@
         <v>2982</v>
       </c>
     </row>
-    <row r="365" spans="1:1027" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:1033" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A365" s="2" t="s">
         <v>3104</v>
       </c>
@@ -62024,7 +62060,7 @@
         <v>2983</v>
       </c>
     </row>
-    <row r="366" spans="1:1027" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:1033" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A366" s="2" t="s">
         <v>3105</v>
       </c>
@@ -62032,7 +62068,7 @@
         <v>2984</v>
       </c>
     </row>
-    <row r="367" spans="1:1027" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:1033" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A367" s="2" t="s">
         <v>3106</v>
       </c>
@@ -62040,7 +62076,7 @@
         <v>2004</v>
       </c>
     </row>
-    <row r="368" spans="1:1027" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:1033" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A368" s="2" t="s">
         <v>3107</v>
       </c>
@@ -62048,7 +62084,7 @@
         <v>2985</v>
       </c>
     </row>
-    <row r="369" spans="1:1027" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:1033" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A369" s="2" t="s">
         <v>3108</v>
       </c>
@@ -62056,7 +62092,7 @@
         <v>2986</v>
       </c>
     </row>
-    <row r="370" spans="1:1027" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:1033" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A370" s="2" t="s">
         <v>3109</v>
       </c>
@@ -62064,7 +62100,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="371" spans="1:1027" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:1033" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A371" s="2" t="s">
         <v>37</v>
       </c>
@@ -62188,8 +62224,11 @@
       <c r="AMM371" s="2" t="s">
         <v>619</v>
       </c>
-    </row>
-    <row r="372" spans="1:1027" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AMS371" s="2" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="372" spans="1:1033" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A372" s="2" t="s">
         <v>8</v>
       </c>
@@ -62239,7 +62278,7 @@
         <v>4868</v>
       </c>
       <c r="QI372" s="2" t="s">
-        <v>5478</v>
+        <v>5477</v>
       </c>
       <c r="RX372" s="9"/>
       <c r="RY372" s="9" t="s">
@@ -62483,8 +62522,11 @@
       <c r="AMC372" s="2" t="s">
         <v>5392</v>
       </c>
-    </row>
-    <row r="373" spans="1:1027" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AMS372" s="2" t="s">
+        <v>5491</v>
+      </c>
+    </row>
+    <row r="373" spans="1:1033" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A373" s="2" t="s">
         <v>207</v>
       </c>
@@ -62515,7 +62557,7 @@
         <v>2051</v>
       </c>
     </row>
-    <row r="374" spans="1:1027" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:1033" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A374" s="2" t="s">
         <v>9</v>
       </c>
@@ -62753,13 +62795,16 @@
       <c r="AMC374" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="375" spans="1:1027" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AMS374" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="375" spans="1:1033" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A375" s="2" t="s">
         <v>3825</v>
       </c>
     </row>
-    <row r="376" spans="1:1027" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:1033" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A376" s="2" t="s">
         <v>10</v>
       </c>
@@ -63065,8 +63110,11 @@
       <c r="AMM376" s="2" t="s">
         <v>4486</v>
       </c>
-    </row>
-    <row r="377" spans="1:1027" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AMS376" s="2" t="s">
+        <v>5489</v>
+      </c>
+    </row>
+    <row r="377" spans="1:1033" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A377" s="2" t="s">
         <v>3634</v>
       </c>
@@ -63074,7 +63122,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="378" spans="1:1027" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:1033" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A378" s="2" t="s">
         <v>208</v>
       </c>
@@ -63327,7 +63375,7 @@
         <v>1940</v>
       </c>
     </row>
-    <row r="379" spans="1:1027" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:1033" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A379" s="2" t="s">
         <v>11</v>
       </c>
@@ -63569,7 +63617,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="380" spans="1:1027" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:1033" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A380" s="2" t="s">
         <v>12</v>
       </c>
@@ -63613,7 +63661,7 @@
         <v>4866</v>
       </c>
       <c r="QI380" s="2" t="s">
-        <v>5479</v>
+        <v>5478</v>
       </c>
       <c r="RX380" s="9"/>
       <c r="RY380" s="9" t="s">
@@ -63834,12 +63882,12 @@
         <v>4452</v>
       </c>
     </row>
-    <row r="381" spans="1:1027" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:1033" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A381" s="2" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="382" spans="1:1027" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:1033" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A382" s="2" t="s">
         <v>530</v>
       </c>
@@ -63853,12 +63901,12 @@
         <v>4228</v>
       </c>
     </row>
-    <row r="383" spans="1:1027" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:1033" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A383" s="2" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="384" spans="1:1027" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:1033" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A384" s="2" t="s">
         <v>532</v>
       </c>
@@ -63872,12 +63920,12 @@
         <v>1941</v>
       </c>
     </row>
-    <row r="385" spans="1:1017" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:1017 1033:1033" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A385" s="2" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="386" spans="1:1017" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:1017 1033:1033" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A386" s="2" t="s">
         <v>534</v>
       </c>
@@ -63891,12 +63939,12 @@
         <v>4453</v>
       </c>
     </row>
-    <row r="387" spans="1:1017" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:1017 1033:1033" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A387" s="2" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="388" spans="1:1017" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:1017 1033:1033" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A388" s="2" t="s">
         <v>536</v>
       </c>
@@ -63904,12 +63952,12 @@
         <v>4229</v>
       </c>
     </row>
-    <row r="389" spans="1:1017" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:1017 1033:1033" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A389" s="2" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="390" spans="1:1017" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:1017 1033:1033" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A390" s="2" t="s">
         <v>538</v>
       </c>
@@ -63917,12 +63965,12 @@
         <v>4230</v>
       </c>
     </row>
-    <row r="391" spans="1:1017" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:1017 1033:1033" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A391" s="2" t="s">
         <v>4260</v>
       </c>
     </row>
-    <row r="392" spans="1:1017" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:1017 1033:1033" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A392" s="2" t="s">
         <v>4261</v>
       </c>
@@ -63930,7 +63978,7 @@
         <v>4231</v>
       </c>
     </row>
-    <row r="393" spans="1:1017" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:1017 1033:1033" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A393" s="2" t="s">
         <v>94</v>
       </c>
@@ -64042,8 +64090,11 @@
       <c r="AMC393" s="2" t="s">
         <v>730</v>
       </c>
-    </row>
-    <row r="394" spans="1:1017" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AMS393" s="2" t="s">
+        <v>3004</v>
+      </c>
+    </row>
+    <row r="394" spans="1:1017 1033:1033" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A394" s="2" t="s">
         <v>5324</v>
       </c>
@@ -64090,7 +64141,7 @@
         <v>2032</v>
       </c>
     </row>
-    <row r="395" spans="1:1017" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:1017 1033:1033" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A395" s="2" t="s">
         <v>209</v>
       </c>
@@ -64191,7 +64242,7 @@
         <v>1939</v>
       </c>
     </row>
-    <row r="396" spans="1:1017" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:1017 1033:1033" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A396" s="2" t="s">
         <v>51</v>
       </c>
@@ -64289,7 +64340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="397" spans="1:1017" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:1017 1033:1033" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A397" s="2" t="s">
         <v>52</v>
       </c>
@@ -64390,7 +64441,7 @@
         <v>4221</v>
       </c>
     </row>
-    <row r="398" spans="1:1017" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:1017 1033:1033" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A398" s="2" t="s">
         <v>53</v>
       </c>
@@ -64422,7 +64473,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="399" spans="1:1017" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:1017 1033:1033" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A399" s="2" t="s">
         <v>54</v>
       </c>
@@ -64517,7 +64568,7 @@
         <v>4221</v>
       </c>
     </row>
-    <row r="400" spans="1:1017" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:1017 1033:1033" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A400" s="2" t="s">
         <v>5171</v>
       </c>
@@ -72110,139 +72161,139 @@
   </sortState>
   <phoneticPr fontId="18" type="noConversion"/>
   <conditionalFormatting sqref="MR43">
-    <cfRule type="duplicateValues" dxfId="45" priority="55"/>
+    <cfRule type="duplicateValues" dxfId="44" priority="55"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="MT43">
-    <cfRule type="duplicateValues" dxfId="44" priority="54"/>
+    <cfRule type="duplicateValues" dxfId="43" priority="54"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="MV43">
-    <cfRule type="duplicateValues" dxfId="43" priority="53"/>
+    <cfRule type="duplicateValues" dxfId="42" priority="53"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="MX43">
-    <cfRule type="duplicateValues" dxfId="42" priority="52"/>
+    <cfRule type="duplicateValues" dxfId="41" priority="52"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="MZ43">
-    <cfRule type="duplicateValues" dxfId="41" priority="51"/>
+    <cfRule type="duplicateValues" dxfId="40" priority="51"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="NB43">
-    <cfRule type="duplicateValues" dxfId="40" priority="50"/>
+    <cfRule type="duplicateValues" dxfId="39" priority="50"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="ND43">
-    <cfRule type="duplicateValues" dxfId="39" priority="49"/>
+    <cfRule type="duplicateValues" dxfId="38" priority="49"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="NF43">
-    <cfRule type="duplicateValues" dxfId="38" priority="48"/>
+    <cfRule type="duplicateValues" dxfId="37" priority="48"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="NH43">
-    <cfRule type="duplicateValues" dxfId="37" priority="47"/>
+    <cfRule type="duplicateValues" dxfId="36" priority="47"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="NN43">
-    <cfRule type="duplicateValues" dxfId="36" priority="46"/>
+    <cfRule type="duplicateValues" dxfId="35" priority="46"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="NP43">
-    <cfRule type="duplicateValues" dxfId="35" priority="36"/>
+    <cfRule type="duplicateValues" dxfId="34" priority="36"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="NR43">
-    <cfRule type="duplicateValues" dxfId="34" priority="35"/>
+    <cfRule type="duplicateValues" dxfId="33" priority="35"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="NT43">
-    <cfRule type="duplicateValues" dxfId="33" priority="34"/>
+    <cfRule type="duplicateValues" dxfId="32" priority="34"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="NV43">
-    <cfRule type="duplicateValues" dxfId="32" priority="33"/>
+    <cfRule type="duplicateValues" dxfId="31" priority="33"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="NX43">
-    <cfRule type="duplicateValues" dxfId="31" priority="32"/>
+    <cfRule type="duplicateValues" dxfId="30" priority="32"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="NZ43">
-    <cfRule type="duplicateValues" dxfId="30" priority="31"/>
+    <cfRule type="duplicateValues" dxfId="29" priority="31"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="OB43">
-    <cfRule type="duplicateValues" dxfId="29" priority="30"/>
+    <cfRule type="duplicateValues" dxfId="28" priority="30"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="OD43">
-    <cfRule type="duplicateValues" dxfId="28" priority="29"/>
+    <cfRule type="duplicateValues" dxfId="27" priority="29"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="OF43">
-    <cfRule type="duplicateValues" dxfId="27" priority="28"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="28"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="OO43">
-    <cfRule type="duplicateValues" dxfId="26" priority="27"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="27"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="OP43">
-    <cfRule type="duplicateValues" dxfId="25" priority="26"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="26"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="OQ43">
-    <cfRule type="duplicateValues" dxfId="24" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="25"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="OS1">
-    <cfRule type="duplicateValues" dxfId="23" priority="105"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="105"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="OG1:OH1">
-    <cfRule type="duplicateValues" dxfId="22" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="23"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="NI1:NJ1">
-    <cfRule type="duplicateValues" dxfId="21" priority="22"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="22"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="PC1">
-    <cfRule type="duplicateValues" dxfId="20" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="21"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="PG1">
-    <cfRule type="duplicateValues" dxfId="19" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="20"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AKV1 PF1 OT1:PB1 OI1:OR1 NK1:OF1 A1:NH1 QE1:AIN1 AKY1:ALE1 ALM1:ALT1 AMB1:AME1 AMH1:XFD1 AIX1:AKS1">
-    <cfRule type="duplicateValues" dxfId="18" priority="106"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="106"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="PD1:PE1">
-    <cfRule type="duplicateValues" dxfId="17" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="19"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="PH1:QD1">
-    <cfRule type="duplicateValues" dxfId="16" priority="113"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="113"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AKT1">
-    <cfRule type="duplicateValues" dxfId="15" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AKU1">
-    <cfRule type="duplicateValues" dxfId="14" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AKT43">
-    <cfRule type="duplicateValues" dxfId="13" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AKU43">
-    <cfRule type="duplicateValues" dxfId="12" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AKW43">
-    <cfRule type="duplicateValues" dxfId="11" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AKW1">
-    <cfRule type="duplicateValues" dxfId="10" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AKX43">
-    <cfRule type="duplicateValues" dxfId="9" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AKX1">
-    <cfRule type="duplicateValues" dxfId="8" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="ALF1:ALL1">
-    <cfRule type="duplicateValues" dxfId="7" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="ALU1:AMA1">
-    <cfRule type="duplicateValues" dxfId="6" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AMF1">
-    <cfRule type="duplicateValues" dxfId="5" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AMG1">
-    <cfRule type="duplicateValues" dxfId="4" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AMF43">
-    <cfRule type="duplicateValues" dxfId="3" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AMG43">
-    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AIO1:AIW1">
-    <cfRule type="duplicateValues" dxfId="1" priority="126"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="126"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
